--- a/biology/Zoologie/Adelpha_pollina/Adelpha_pollina.xlsx
+++ b/biology/Zoologie/Adelpha_pollina/Adelpha_pollina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha pollina  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre des Adelpha.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha pollina a été décrit par Hans Fruhstorfer en 1915[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha pollina a été décrit par Hans Fruhstorfer en 1915
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha pollina est un papillon d'une envergure d'environ 45 mm à bord externe des ailes antérieures concave[2]. La face dorsale est marron barrée, aux ailes antérieures, d'une large bande orange et aux ailes postérieures d'une bande blanche.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha pollina est un papillon d'une envergure d'environ 45 mm à bord externe des ailes antérieures concave. La face dorsale est marron barrée, aux ailes antérieures, d'une large bande orange et aux ailes postérieures d'une bande blanche.
 Le revers est beige et marron avec un damier et la même ornementation mais les bandes sont blanches aux postérieures et aux antérieures.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,12 +618,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha pollina est présent en Amérique sous forme de trois isolats, un au Honduras, au Venezuela et à Panama, un en Bolivie et en Équateur et un en Guyane et Guyana[1],[2]. 
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha pollina est présent en Amérique sous forme de trois isolats, un au Honduras, au Venezuela et à Panama, un en Bolivie et en Équateur et un en Guyane et Guyana,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_pollina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_pollina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Adelpha pollina, sur Wikimedia CommonsAdelpha pollina, sur Wikispecies
 </t>
